--- a/trabajo_individual2/datos_rain.xlsx
+++ b/trabajo_individual2/datos_rain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Diseno_experimental\trabajo_individual2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos_GitHub\Diseno_experimental\trabajo_individual2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E39CC7-3369-4824-AEB0-F9EF54D02190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56044C28-EDA5-47EF-ADBE-C466BB05515B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="1050" windowWidth="24240" windowHeight="13140" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,17 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Filtrado!$A$2:$F$210</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -327,9 +338,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -362,10 +373,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91BC6FFB-83C6-4411-A1F8-B97C589748DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="371475"/>
+          <a:ext cx="7772400" cy="4634377"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -403,9 +469,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,9 +504,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,9 +556,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8688,12 +8788,12 @@
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -12913,7 +13013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921AA1C3-D37A-4E2D-8A69-26F2516BE435}">
   <dimension ref="A1:HI209"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
+    <sheetView topLeftCell="A129" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H209"/>
     </sheetView>
   </sheetViews>
@@ -13005,232 +13105,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:217" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
       <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
-      <c r="AY1" s="17"/>
-      <c r="AZ1" s="17"/>
-      <c r="BA1" s="17"/>
-      <c r="BB1" s="17"/>
-      <c r="BC1" s="17"/>
-      <c r="BD1" s="17"/>
-      <c r="BE1" s="17"/>
-      <c r="BF1" s="17"/>
-      <c r="BG1" s="17"/>
-      <c r="BH1" s="17"/>
-      <c r="BI1" s="17"/>
-      <c r="BJ1" s="17"/>
-      <c r="BK1" s="17"/>
-      <c r="BL1" s="17"/>
-      <c r="BM1" s="17"/>
-      <c r="BN1" s="17"/>
-      <c r="BO1" s="17"/>
-      <c r="BP1" s="17"/>
-      <c r="BQ1" s="17"/>
-      <c r="BR1" s="17"/>
-      <c r="BS1" s="17"/>
-      <c r="BT1" s="17"/>
-      <c r="BU1" s="17"/>
-      <c r="BV1" s="17"/>
-      <c r="BW1" s="17"/>
-      <c r="BX1" s="17"/>
-      <c r="BY1" s="17"/>
-      <c r="BZ1" s="17"/>
-      <c r="CA1" s="17"/>
-      <c r="CB1" s="17"/>
-      <c r="CC1" s="17"/>
-      <c r="CD1" s="17"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="17"/>
-      <c r="DB1" s="17"/>
-      <c r="DC1" s="17"/>
-      <c r="DD1" s="17"/>
-      <c r="DE1" s="17"/>
-      <c r="DF1" s="17"/>
-      <c r="DG1" s="17"/>
-      <c r="DH1" s="17"/>
-      <c r="DI1" s="17"/>
-      <c r="DJ1" s="17"/>
-      <c r="DK1" s="17"/>
-      <c r="DL1" s="17"/>
-      <c r="DM1" s="17"/>
-      <c r="DN1" s="17"/>
-      <c r="DO1" s="17"/>
-      <c r="DP1" s="17"/>
-      <c r="DQ1" s="17"/>
-      <c r="DR1" s="17"/>
-      <c r="DS1" s="17"/>
-      <c r="DT1" s="17"/>
-      <c r="DU1" s="17"/>
-      <c r="DV1" s="17"/>
-      <c r="DW1" s="17"/>
-      <c r="DX1" s="17"/>
-      <c r="DY1" s="17"/>
-      <c r="DZ1" s="17"/>
-      <c r="EA1" s="17"/>
-      <c r="EB1" s="17"/>
-      <c r="EC1" s="17"/>
-      <c r="ED1" s="17"/>
-      <c r="EE1" s="17"/>
-      <c r="EF1" s="17"/>
-      <c r="EG1" s="17"/>
-      <c r="EH1" s="17"/>
-      <c r="EI1" s="17"/>
-      <c r="EJ1" s="17"/>
-      <c r="EK1" s="17"/>
-      <c r="EL1" s="17"/>
-      <c r="EM1" s="17"/>
-      <c r="EN1" s="17"/>
-      <c r="EO1" s="17"/>
-      <c r="EP1" s="17"/>
-      <c r="EQ1" s="17"/>
-      <c r="ER1" s="17"/>
-      <c r="ES1" s="17"/>
-      <c r="ET1" s="17"/>
-      <c r="EU1" s="17"/>
-      <c r="EV1" s="17"/>
-      <c r="EW1" s="17"/>
-      <c r="EX1" s="17"/>
-      <c r="EY1" s="17"/>
-      <c r="EZ1" s="17"/>
-      <c r="FA1" s="17"/>
-      <c r="FB1" s="17"/>
-      <c r="FC1" s="17"/>
-      <c r="FD1" s="17"/>
-      <c r="FE1" s="17"/>
-      <c r="FF1" s="17"/>
-      <c r="FG1" s="17"/>
-      <c r="FH1" s="17"/>
-      <c r="FI1" s="17"/>
-      <c r="FJ1" s="17"/>
-      <c r="FK1" s="17"/>
-      <c r="FL1" s="17"/>
-      <c r="FM1" s="17"/>
-      <c r="FN1" s="17"/>
-      <c r="FO1" s="17"/>
-      <c r="FP1" s="17"/>
-      <c r="FQ1" s="17"/>
-      <c r="FR1" s="17"/>
-      <c r="FS1" s="17"/>
-      <c r="FT1" s="17"/>
-      <c r="FU1" s="17"/>
-      <c r="FV1" s="17"/>
-      <c r="FW1" s="17"/>
-      <c r="FX1" s="17"/>
-      <c r="FY1" s="17"/>
-      <c r="FZ1" s="17"/>
-      <c r="GA1" s="17"/>
-      <c r="GB1" s="17"/>
-      <c r="GC1" s="17"/>
-      <c r="GD1" s="17"/>
-      <c r="GE1" s="17"/>
-      <c r="GF1" s="17"/>
-      <c r="GG1" s="17"/>
-      <c r="GH1" s="17"/>
-      <c r="GI1" s="17"/>
-      <c r="GJ1" s="17"/>
-      <c r="GK1" s="17"/>
-      <c r="GL1" s="17"/>
-      <c r="GM1" s="17"/>
-      <c r="GN1" s="17"/>
-      <c r="GO1" s="17"/>
-      <c r="GP1" s="17"/>
-      <c r="GQ1" s="17"/>
-      <c r="GR1" s="17"/>
-      <c r="GS1" s="17"/>
-      <c r="GT1" s="17"/>
-      <c r="GU1" s="17"/>
-      <c r="GV1" s="17"/>
-      <c r="GW1" s="17"/>
-      <c r="GX1" s="17"/>
-      <c r="GY1" s="17"/>
-      <c r="GZ1" s="17"/>
-      <c r="HA1" s="17"/>
-      <c r="HB1" s="17"/>
-      <c r="HC1" s="17"/>
-      <c r="HD1" s="17"/>
-      <c r="HE1" s="17"/>
-      <c r="HF1" s="17"/>
-      <c r="HG1" s="17"/>
-      <c r="HH1" s="17"/>
-      <c r="HI1" s="17"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="22"/>
+      <c r="BC1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="22"/>
+      <c r="BF1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="22"/>
+      <c r="BI1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="22"/>
+      <c r="BL1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="22"/>
+      <c r="BO1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="22"/>
+      <c r="BR1" s="22"/>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="22"/>
+      <c r="BU1" s="22"/>
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="22"/>
+      <c r="BX1" s="22"/>
+      <c r="BY1" s="22"/>
+      <c r="BZ1" s="22"/>
+      <c r="CA1" s="22"/>
+      <c r="CB1" s="22"/>
+      <c r="CC1" s="22"/>
+      <c r="CD1" s="22"/>
+      <c r="CE1" s="22"/>
+      <c r="CF1" s="22"/>
+      <c r="CG1" s="22"/>
+      <c r="CH1" s="22"/>
+      <c r="CI1" s="22"/>
+      <c r="CJ1" s="22"/>
+      <c r="CK1" s="22"/>
+      <c r="CL1" s="22"/>
+      <c r="CM1" s="22"/>
+      <c r="CN1" s="22"/>
+      <c r="CO1" s="22"/>
+      <c r="CP1" s="22"/>
+      <c r="CQ1" s="22"/>
+      <c r="CR1" s="22"/>
+      <c r="CS1" s="22"/>
+      <c r="CT1" s="22"/>
+      <c r="CU1" s="22"/>
+      <c r="CV1" s="22"/>
+      <c r="CW1" s="22"/>
+      <c r="CX1" s="22"/>
+      <c r="CY1" s="22"/>
+      <c r="CZ1" s="22"/>
+      <c r="DA1" s="22"/>
+      <c r="DB1" s="22"/>
+      <c r="DC1" s="22"/>
+      <c r="DD1" s="22"/>
+      <c r="DE1" s="22"/>
+      <c r="DF1" s="22"/>
+      <c r="DG1" s="22"/>
+      <c r="DH1" s="22"/>
+      <c r="DI1" s="22"/>
+      <c r="DJ1" s="22"/>
+      <c r="DK1" s="22"/>
+      <c r="DL1" s="22"/>
+      <c r="DM1" s="22"/>
+      <c r="DN1" s="22"/>
+      <c r="DO1" s="22"/>
+      <c r="DP1" s="22"/>
+      <c r="DQ1" s="22"/>
+      <c r="DR1" s="22"/>
+      <c r="DS1" s="22"/>
+      <c r="DT1" s="22"/>
+      <c r="DU1" s="22"/>
+      <c r="DV1" s="22"/>
+      <c r="DW1" s="22"/>
+      <c r="DX1" s="22"/>
+      <c r="DY1" s="22"/>
+      <c r="DZ1" s="22"/>
+      <c r="EA1" s="22"/>
+      <c r="EB1" s="22"/>
+      <c r="EC1" s="22"/>
+      <c r="ED1" s="22"/>
+      <c r="EE1" s="22"/>
+      <c r="EF1" s="22"/>
+      <c r="EG1" s="22"/>
+      <c r="EH1" s="22"/>
+      <c r="EI1" s="22"/>
+      <c r="EJ1" s="22"/>
+      <c r="EK1" s="22"/>
+      <c r="EL1" s="22"/>
+      <c r="EM1" s="22"/>
+      <c r="EN1" s="22"/>
+      <c r="EO1" s="22"/>
+      <c r="EP1" s="22"/>
+      <c r="EQ1" s="22"/>
+      <c r="ER1" s="22"/>
+      <c r="ES1" s="22"/>
+      <c r="ET1" s="22"/>
+      <c r="EU1" s="22"/>
+      <c r="EV1" s="22"/>
+      <c r="EW1" s="22"/>
+      <c r="EX1" s="22"/>
+      <c r="EY1" s="22"/>
+      <c r="EZ1" s="22"/>
+      <c r="FA1" s="22"/>
+      <c r="FB1" s="22"/>
+      <c r="FC1" s="22"/>
+      <c r="FD1" s="22"/>
+      <c r="FE1" s="22"/>
+      <c r="FF1" s="22"/>
+      <c r="FG1" s="22"/>
+      <c r="FH1" s="22"/>
+      <c r="FI1" s="22"/>
+      <c r="FJ1" s="22"/>
+      <c r="FK1" s="22"/>
+      <c r="FL1" s="22"/>
+      <c r="FM1" s="22"/>
+      <c r="FN1" s="22"/>
+      <c r="FO1" s="22"/>
+      <c r="FP1" s="22"/>
+      <c r="FQ1" s="22"/>
+      <c r="FR1" s="22"/>
+      <c r="FS1" s="22"/>
+      <c r="FT1" s="22"/>
+      <c r="FU1" s="22"/>
+      <c r="FV1" s="22"/>
+      <c r="FW1" s="22"/>
+      <c r="FX1" s="22"/>
+      <c r="FY1" s="22"/>
+      <c r="FZ1" s="22"/>
+      <c r="GA1" s="22"/>
+      <c r="GB1" s="22"/>
+      <c r="GC1" s="22"/>
+      <c r="GD1" s="22"/>
+      <c r="GE1" s="22"/>
+      <c r="GF1" s="22"/>
+      <c r="GG1" s="22"/>
+      <c r="GH1" s="22"/>
+      <c r="GI1" s="22"/>
+      <c r="GJ1" s="22"/>
+      <c r="GK1" s="22"/>
+      <c r="GL1" s="22"/>
+      <c r="GM1" s="22"/>
+      <c r="GN1" s="22"/>
+      <c r="GO1" s="22"/>
+      <c r="GP1" s="22"/>
+      <c r="GQ1" s="22"/>
+      <c r="GR1" s="22"/>
+      <c r="GS1" s="22"/>
+      <c r="GT1" s="22"/>
+      <c r="GU1" s="22"/>
+      <c r="GV1" s="22"/>
+      <c r="GW1" s="22"/>
+      <c r="GX1" s="22"/>
+      <c r="GY1" s="22"/>
+      <c r="GZ1" s="22"/>
+      <c r="HA1" s="22"/>
+      <c r="HB1" s="22"/>
+      <c r="HC1" s="22"/>
+      <c r="HD1" s="22"/>
+      <c r="HE1" s="22"/>
+      <c r="HF1" s="22"/>
+      <c r="HG1" s="22"/>
+      <c r="HH1" s="22"/>
+      <c r="HI1" s="22"/>
     </row>
     <row r="2" spans="1:217" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -33831,7 +33931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D826F57-A9D8-4BEC-BFF9-9A685991D36F}">
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B209"/>
     </sheetView>
   </sheetViews>
@@ -33844,16 +33944,16 @@
       <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -38225,7 +38325,7 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D210" s="21" t="s">
+      <c r="D210" s="20" t="s">
         <v>26</v>
       </c>
       <c r="E210">
@@ -38234,15 +38334,15 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="20" t="s">
+      <c r="A211" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B211" s="20">
+      <c r="B211" s="19">
         <f>AVERAGE(B2:B209)</f>
         <v>4.6519230769229959E-2</v>
       </c>
-      <c r="C211" s="20"/>
-      <c r="D211" s="21" t="s">
+      <c r="C211" s="19"/>
+      <c r="D211" s="20" t="s">
         <v>27</v>
       </c>
       <c r="E211">
@@ -38251,18 +38351,18 @@
       </c>
     </row>
     <row r="212" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A212" s="20" t="s">
+      <c r="A212" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B212" s="20">
+      <c r="B212" s="19">
         <f>_xlfn.STDEV.S(B2:B209)</f>
         <v>9.3400416621574092</v>
       </c>
-      <c r="C212" s="20"/>
-      <c r="D212" s="18" t="s">
+      <c r="C212" s="19"/>
+      <c r="D212" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E212" s="21" t="b">
+      <c r="E212" s="20" t="b">
         <f>E210&lt;E211</f>
         <v>0</v>
       </c>
@@ -38280,17 +38380,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5E7A79-A94C-4226-BB7E-581CCE491BDB}">
   <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C1" t="s">
@@ -41852,5 +41952,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>